--- a/EXPRS/Heat/Expr2d/Expr_1.xlsx
+++ b/EXPRS/Heat/Expr2d/Expr_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/Expr2d/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Heat/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC693B4-6DA8-8F4D-9D07-A64553C715FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF20774-C7B5-FF4F-BB64-1ACAA4DF0C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28820" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -43,117 +43,113 @@
     <t>Save_Path</t>
   </si>
   <si>
-    <t>Train_Dataset</t>
-  </si>
-  <si>
-    <t>Valid_Dataset</t>
-  </si>
-  <si>
-    <t>Test_Dataset</t>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Sub_number</t>
+  </si>
+  <si>
+    <t>Scale_Coeff</t>
+  </si>
+  <si>
+    <t>Sum_Samples</t>
+  </si>
+  <si>
+    <t>Boundary</t>
+  </si>
+  <si>
+    <t>Domain_Numbers</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Con_record</t>
+  </si>
+  <si>
+    <t>mscalenn2</t>
+  </si>
+  <si>
+    <t>1100,550,550,400</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Layer_Set</t>
+  </si>
+  <si>
+    <t>Act_Set</t>
+  </si>
+  <si>
+    <t>Ini_Set</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>2,200,200,200,1</t>
+  </si>
+  <si>
+    <t>phi,phi,phi</t>
+  </si>
+  <si>
+    <t>xavier_uniform</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>train_loss</t>
+  </si>
+  <si>
+    <t>valid_loss</t>
+  </si>
+  <si>
+    <t>test_loss</t>
+  </si>
+  <si>
+    <t>Fig_Record_Interve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,15000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phi,phi,phi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepxde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result/Heat/Expr2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Batch_size</t>
-  </si>
-  <si>
-    <t>Mu</t>
-  </si>
-  <si>
-    <t>Epoch</t>
-  </si>
-  <si>
-    <t>Penalty</t>
-  </si>
-  <si>
-    <t>Sub_number</t>
-  </si>
-  <si>
-    <t>Scale_Coeff</t>
-  </si>
-  <si>
-    <t>Sum_Samples</t>
-  </si>
-  <si>
-    <t>Boundary</t>
-  </si>
-  <si>
-    <t>Domain_Numbers</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Con_record</t>
-  </si>
-  <si>
-    <t>mscalenn2</t>
-  </si>
-  <si>
-    <t>src_lam/possion_domain.py</t>
-  </si>
-  <si>
-    <t>Result/Expr2_1</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/train_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/val_loader.pt</t>
-  </si>
-  <si>
-    <t>data/possion_2d/holes/test_loader.pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2,4,8,16</t>
-  </si>
-  <si>
-    <t>1100,550,550,400</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>Layer_Set</t>
-  </si>
-  <si>
-    <t>Act_Set</t>
-  </si>
-  <si>
-    <t>Ini_Set</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>2,200,200,200,1</t>
-  </si>
-  <si>
-    <t>phi,phi,phi</t>
-  </si>
-  <si>
-    <t>xavier_uniform</t>
-  </si>
-  <si>
-    <t>epoch</t>
-  </si>
-  <si>
-    <t>train_loss</t>
-  </si>
-  <si>
-    <t>valid_loss</t>
-  </si>
-  <si>
-    <t>test_loss</t>
-  </si>
-  <si>
-    <t>Fig_Record_Interve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,15000,30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phi,phi,phi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalty_boundary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalty_pde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalty_mse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -193,13 +189,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -269,12 +258,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,19 +580,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="6" max="6" width="10.83203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="17.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="6"/>
+    <col min="14" max="14" width="17.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:18">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -620,54 +609,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>1E-3</v>
@@ -676,59 +659,53 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="7">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="6">
-        <v>7</v>
+      <c r="G2" s="1">
+        <v>30100</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="K2" s="1">
-        <v>30100</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="1">
         <v>1</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>25</v>
+      <c r="L2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="6">
+        <v>5000</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="O2" s="6">
-        <v>5000</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="6">
         <v>2400</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2">
+      <c r="P2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="S3" s="4"/>
+    <row r="3" spans="1:18">
+      <c r="Q3" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -740,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -748,27 +725,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -792,27 +769,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -836,27 +813,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -880,27 +857,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -924,27 +901,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="b">
         <v>0</v>
@@ -967,17 +944,17 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>38</v>
+      <c r="A1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/EXPRS/Heat/Expr2d/Expr_1.xlsx
+++ b/EXPRS/Heat/Expr2d/Expr_1.xlsx
@@ -8,25 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangaoming/Desktop/neural_study/lulu_ms/EXPRS/Heat/Expr2d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF20774-C7B5-FF4F-BB64-1ACAA4DF0C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AEB313-E33B-B848-A911-4C7F062D1B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28820" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SET" sheetId="1" r:id="rId1"/>
-    <sheet name="Subnet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Subnet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Subnet3" sheetId="4" r:id="rId4"/>
-    <sheet name="Subnet4" sheetId="5" r:id="rId5"/>
-    <sheet name="Subnet5" sheetId="6" r:id="rId6"/>
-    <sheet name="LossRecord" sheetId="7" r:id="rId7"/>
+    <sheet name="Subnet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Subnet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Subnet3" sheetId="9" r:id="rId4"/>
+    <sheet name="LossRecord" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Model</t>
   </si>
@@ -91,65 +89,65 @@
     <t>2,200,200,200,1</t>
   </si>
   <si>
+    <t>xavier_uniform</t>
+  </si>
+  <si>
+    <t>epoch</t>
+  </si>
+  <si>
+    <t>train_loss</t>
+  </si>
+  <si>
+    <t>valid_loss</t>
+  </si>
+  <si>
+    <t>test_loss</t>
+  </si>
+  <si>
+    <t>Fig_Record_Interve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,15000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>phi,phi,phi</t>
-  </si>
-  <si>
-    <t>xavier_uniform</t>
-  </si>
-  <si>
-    <t>epoch</t>
-  </si>
-  <si>
-    <t>train_loss</t>
-  </si>
-  <si>
-    <t>valid_loss</t>
-  </si>
-  <si>
-    <t>test_loss</t>
-  </si>
-  <si>
-    <t>Fig_Record_Interve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,15000,30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deepxde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result/Heat/Expr2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalty_boundary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalty_pde</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Penalty_mse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phi,phi,phi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deepxde</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result/Heat/Expr2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Batch_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,4,8,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penalty_boundary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penalty_pde</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Penalty_mse</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;¥&quot;* #,##0.00_);_(&quot;¥&quot;* \(#,##0.00\);_(&quot;¥&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,6 +195,14 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +244,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -263,6 +269,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +592,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -609,19 +618,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>6</v>
@@ -645,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -659,10 +668,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="6">
         <v>1</v>
@@ -677,13 +686,13 @@
         <v>100</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M2" s="6">
         <v>5000</v>
@@ -698,10 +707,10 @@
         <v>15</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R2">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -714,11 +723,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21345F42-98D1-BD4C-97B9-2DA7BD98E827}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -742,14 +751,20 @@
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -758,11 +773,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -786,13 +801,13 @@
         <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D2" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -802,42 +817,48 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9FA8BB-BC9F-7C41-BE8C-6794E48F54BC}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="D2" s="10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -846,115 +867,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
